--- a/TK/thongKE.xlsx
+++ b/TK/thongKE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Class\ky1_2122\TH_THS\TK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D542E08-79CB-47E7-AB05-29895BD82CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E542B4-B740-4EB3-BF81-EEAF763B9E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{9948F32C-C0BD-4F4B-A5E5-71EBC7FD9B1F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9948F32C-C0BD-4F4B-A5E5-71EBC7FD9B1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>mean</t>
   </si>
@@ -51,6 +51,42 @@
   </si>
   <si>
     <t>average</t>
+  </si>
+  <si>
+    <t>01MDA</t>
+  </si>
+  <si>
+    <t>02FVA</t>
+  </si>
+  <si>
+    <t>03MAB</t>
+  </si>
+  <si>
+    <t>06FTB</t>
+  </si>
+  <si>
+    <t>30FTN</t>
+  </si>
+  <si>
+    <t>42FQT</t>
+  </si>
+  <si>
+    <t>44MTT</t>
+  </si>
+  <si>
+    <t>45MDV</t>
+  </si>
+  <si>
+    <t>F0mean(Lab)</t>
+  </si>
+  <si>
+    <t>F0mean(Tìm được)</t>
+  </si>
+  <si>
+    <t>Sai số trung bình(%)</t>
+  </si>
+  <si>
+    <t>Sai số(%)</t>
   </si>
 </sst>
 </file>
@@ -66,7 +102,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,8 +115,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -88,16 +130,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -414,30 +478,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CF7EDB-4C2E-4BA6-BF74-4E4A962CF914}">
-  <dimension ref="D5:M17"/>
+  <dimension ref="C5:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="12.4140625" customWidth="1"/>
-    <col min="6" max="6" width="13.58203125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
     <col min="11" max="11" width="9.75" customWidth="1"/>
     <col min="12" max="12" width="10.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
+    <row r="5" spans="3:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>3</v>
@@ -449,14 +514,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D6" s="1">
+    <row r="6" spans="3:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5">
         <v>135.5</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="5">
         <v>119.54519999999999</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="5">
         <f xml:space="preserve"> (ABS(E6 - D6)) / D6 * 100</f>
         <v>11.77476014760148</v>
       </c>
@@ -471,14 +539,17 @@
         <v>427.81851851851843</v>
       </c>
     </row>
-    <row r="7" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D7" s="1">
+    <row r="7" spans="3:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5">
         <v>239.7</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="5">
         <v>123.0911</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="5">
         <f t="shared" ref="F7:F13" si="0" xml:space="preserve"> (ABS(E7 - D7)) / D7 * 100</f>
         <v>48.647851481017938</v>
       </c>
@@ -489,14 +560,17 @@
         <v>66.178399999999996</v>
       </c>
     </row>
-    <row r="8" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D8" s="1">
+    <row r="8" spans="3:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5">
         <v>115</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="5">
         <v>113.7723</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>1.0675652173913033</v>
       </c>
@@ -507,14 +581,17 @@
         <v>10.126099999999999</v>
       </c>
     </row>
-    <row r="9" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D9" s="1">
+    <row r="9" spans="3:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5">
         <v>202.9</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="5">
         <v>125.2902</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>38.250271069492364</v>
       </c>
@@ -525,14 +602,17 @@
         <v>55.811199999999999</v>
       </c>
     </row>
-    <row r="10" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D10" s="1">
+    <row r="10" spans="3:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5">
         <v>233.2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="5">
         <v>98.866200000000006</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="5">
         <f t="shared" si="0"/>
         <v>57.604545454545452</v>
       </c>
@@ -543,14 +623,17 @@
         <v>53.517000000000003</v>
       </c>
     </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D11" s="1">
+    <row r="11" spans="3:13" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5">
         <v>242.7</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="5">
         <v>165.54810000000001</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="5">
         <f t="shared" si="0"/>
         <v>31.788998763906051</v>
       </c>
@@ -561,14 +644,17 @@
         <v>79.334599999999995</v>
       </c>
     </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D12" s="1">
+    <row r="12" spans="3:13" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5">
         <v>125.7</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="5">
         <v>123.98390000000001</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="5">
         <f t="shared" si="0"/>
         <v>1.3652346857597433</v>
       </c>
@@ -579,14 +665,17 @@
         <v>12.340299999999999</v>
       </c>
     </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="1">
+    <row r="13" spans="3:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="5">
         <v>177.8</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="5">
         <v>145.58969999999999</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="5">
         <f t="shared" si="0"/>
         <v>18.116029246344215</v>
       </c>
@@ -599,7 +688,7 @@
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F17">
         <f xml:space="preserve"> AVERAGE(F6:F13)</f>
@@ -615,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F35B64-A39E-4525-B89E-8A19BE896390}">
   <dimension ref="D5:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
